--- a/test-files/expression-data-test-sheets/expression_sheet_mismatched_gene_names.xlsx
+++ b/test-files/expression-data-test-sheets/expression_sheet_mismatched_gene_names.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\OneDrive\GRNsight\test-files\expression-data-test-sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSloaner\Ona\GRNsight\GRNsight\test-files\expression-data-test-sheets\To Do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A7893-DB80-487D-AC52-12B04FA56208}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="1000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="1000" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="optimization_parameters" sheetId="9" r:id="rId7"/>
     <sheet name="threshold_b" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>ACE2</t>
   </si>
@@ -125,16 +124,25 @@
   </si>
   <si>
     <t>TEST3</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t>taxon_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +182,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -542,12 +556,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="348">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -897,7 +912,7 @@
     <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="277" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Normal 3" xfId="277"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1233,7 +1248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1307,7 +1322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1368,7 +1383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1780,10 +1795,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2024,7 +2039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,7 +2148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2242,11 +2257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2400,6 +2415,24 @@
       <c r="E16" s="2">
         <v>15</v>
       </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5">
+        <v>559292</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2413,7 +2446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
